--- a/docs/Quetes.xlsx
+++ b/docs/Quetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48EC1E3-2387-4F47-82E3-D2361DEB9A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D201A-4724-40DC-9927-E4F823EDCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A68592E1-5DEA-40CF-958F-54ABE6EAB25D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Quetes</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Aller tuer 4 chauves souris</t>
   </si>
   <si>
-    <t>Dracula</t>
-  </si>
-  <si>
     <t>batte ail</t>
   </si>
   <si>
@@ -92,15 +89,6 @@
     <t>Bernard Tappir vous demande de ramener une boubourse volée par les nains</t>
   </si>
   <si>
-    <t xml:space="preserve">Aller voir Hippique-sous </t>
-  </si>
-  <si>
-    <t>Donner des sousous à Durdur</t>
-  </si>
-  <si>
-    <t>Retourner voir Benard Tappir</t>
-  </si>
-  <si>
     <t>1 pinte, 500xp, 20 or, la pelle forte</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
   </si>
   <si>
     <t>côte de beauf</t>
-  </si>
-  <si>
-    <t>visiter le sous sol du pont en musse tongue ave Die Anna</t>
   </si>
   <si>
     <t>recuperer un élement secret (Chie mi Hendrix)</t>
@@ -155,6 +140,30 @@
   </si>
   <si>
     <t>Un vampire terrorise les habitants de la ville (Iggy Pope)</t>
+  </si>
+  <si>
+    <t>Aller voir Hippique-sous pour avoir des infos</t>
+  </si>
+  <si>
+    <t>Retourner voir Benard Tappir et lui donner la boubourse gagner au concours de lancer de pomme</t>
+  </si>
+  <si>
+    <t>Donner des sousous à Durdur pour avoir une casquette à pointe afin de récupérer une boubourse à son concours de lancer de pommes</t>
+  </si>
+  <si>
+    <t>Victoria secret</t>
+  </si>
+  <si>
+    <t>Le voleur volé</t>
+  </si>
+  <si>
+    <t>Coco bel œil</t>
+  </si>
+  <si>
+    <t>Un carrosse dans le tunnel</t>
+  </si>
+  <si>
+    <t>visiter le tunnel du pont en musse tongue avec Die Anna</t>
   </si>
 </sst>
 </file>
@@ -562,10 +571,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -583,6 +591,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,57 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -969,7 +977,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,393 +986,399 @@
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="38" t="s">
+      <c r="F12" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="38" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/Quetes.xlsx
+++ b/docs/Quetes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D201A-4724-40DC-9927-E4F823EDCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF70414-C8C6-44E6-86B5-085D06C191A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A68592E1-5DEA-40CF-958F-54ABE6EAB25D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Quetes</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>objectifs (table annexe)</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>recuperer du houblon (Alain Chichon)</t>
@@ -164,6 +161,12 @@
   </si>
   <si>
     <t>visiter le tunnel du pont en musse tongue avec Die Anna</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Objectifs</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -235,21 +238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -452,19 +440,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,6 +536,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -571,95 +577,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,415 +988,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D840C98-1A7E-42EE-AF78-CF32870C665E}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="H1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="G2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;A2&amp;"')"</f>
+        <v>('','Bonne brune','Mr Ohbar vous a demandé de faire de la bière brune','Quetes')</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>"('"</f>
+        <v>('</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="1" t="str">
+        <f>"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;A3&amp;"'),"</f>
+        <v>('','Bonne brune','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="1" t="str">
+        <f>"('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;A4&amp;"'),"</f>
+        <v>('','Bonne brune','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="1" t="str">
+        <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;A5&amp;"'),"</f>
+        <v>('','Coco bel œil','Un vampire terrorise les habitants de la ville (Iggy Pope)','Quetes'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;A6&amp;"'),"</f>
+        <v>('','Coco bel œil','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>"('"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;A7&amp;"'),"</f>
+        <v>('avoir la batte ail','Coco bel œil','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>"('"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;A8&amp;"'),"</f>
+        <v>('','Le voleur volé','Bernard Tappir vous demande de ramener une boubourse volée par les nains','Quetes'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>"('"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9&amp;"','"&amp;A9&amp;"'),"</f>
+        <v>('','Le voleur volé','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>"('"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10&amp;"','"&amp;A10&amp;"'),"</f>
+        <v>('','Le voleur volé','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="H11" s="1" t="str">
+        <f>"('"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11&amp;"','"&amp;A11&amp;"'),"</f>
+        <v>('','Victoria secret','Victoria-Big-B vous demande d'aller chercher ses objets fétiches chez la reine Bours-La','Quetes'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>"('"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12&amp;"','"&amp;A12&amp;"'),"</f>
+        <v>('','Le voleur volé','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="26" t="s">
+      <c r="D13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+      <c r="G13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>"('"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13&amp;"','"&amp;A13&amp;"')"</f>
+        <v>('','Un carrosse dans le tunnel','Die Anna se sent lente, elle vous demande d'aller chercher le bipbip ','Quetes')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>"('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;A14&amp;"'),"</f>
+        <v>('','Le voleur volé','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="str">
+        <f>"('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;A15&amp;"'),"</f>
+        <v>('','Le voleur volé','','Quetes'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="42"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="42"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="42"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="42"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="42"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="42"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="42"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="42"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="42"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="42"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="42"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="42"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="42"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="42"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="42"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="42"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="42"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="42"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="42"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="42"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D8:D10"/>

--- a/docs/Quetes.xlsx
+++ b/docs/Quetes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-08\Desktop\projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D201A-4724-40DC-9927-E4F823EDCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757B6D9-9C67-446B-A198-A2B27527105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A68592E1-5DEA-40CF-958F-54ABE6EAB25D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A68592E1-5DEA-40CF-958F-54ABE6EAB25D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Quetes</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>objectifs (table annexe)</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>recuperer du houblon (Alain Chichon)</t>
@@ -571,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -628,9 +625,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -974,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D840C98-1A7E-42EE-AF78-CF32870C665E}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +984,7 @@
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,193 +1004,265 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>"('"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', 0),"</f>
+        <v>('', 'Bonne brune', 'Mr Ohbar vous a demandé de faire de la bière brune', 0),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="37"/>
       <c r="E3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G15" si="0">"('"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', 0),"</f>
+        <v>('', 'Bonne brune', '', 0),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="38"/>
       <c r="E4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Bonne brune', '', 0),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="37" t="s">
-        <v>34</v>
+      <c r="C5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Coco bel œil', 'Un vampire terrorise les habitants de la ville (Iggy Pope)', 0),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="37"/>
       <c r="E6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Coco bel œil', '', 0),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="39"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="38"/>
       <c r="E7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('avoir la batte ail', 'Coco bel œil', '', 0),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="37" t="s">
-        <v>17</v>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Le voleur volé', 'Bernard Tappir vous demande de ramener une boubourse volée par les nains', 0),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="37"/>
       <c r="E9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Le voleur volé', '', 0),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38"/>
       <c r="E10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Le voleur volé', '', 0),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Victoria secret', 'Victoria-Big-B vous demande d'aller chercher ses objets fétiches chez la reine Bours-La', 0),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="38"/>
       <c r="E12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Victoria secret', '', 0),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Un carrosse dans le tunnel', 'Die Anna se sent lente, elle vous demande d'aller chercher le bipbip ', 0),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="37"/>
       <c r="E14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Un carrosse dans le tunnel', '', 0),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="38"/>
       <c r="E15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>('', 'Un carrosse dans le tunnel', '', 0),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
